--- a/datamining/final_data/sum1973_nltk.xlsx
+++ b/datamining/final_data/sum1973_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JX2"/>
+  <dimension ref="A1:IT2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,1410 +442,1260 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>can</t>
+          <t>children</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>children</t>
+          <t>disadvantaged</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>disadvantaged</t>
+          <t>gifted</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gifted</t>
+          <t>teach</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>teach</t>
+          <t>teachers</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>teachers</t>
+          <t>five</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>their</t>
+          <t>gfited</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>what</t>
+          <t>grades</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>by</t>
+          <t>reflections</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>five</t>
+          <t>seven</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>gfited</t>
+          <t>six</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>grades</t>
+          <t>behavior</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>reflections</t>
+          <t>contracting</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>seven</t>
+          <t>inhibit</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>six</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>behavior</t>
+          <t>may</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>contracting</t>
+          <t>modification</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>inhibit</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>programmed</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>may</t>
+          <t>creative</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>modification</t>
+          <t>problem-solving</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>synectics</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>programmed</t>
+          <t>technique</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>creative</t>
+          <t>fifty</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>problem-solving</t>
+          <t>jacobs</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>synectics</t>
+          <t>misleading</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>technique</t>
+          <t>reply</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>a</t>
+          <t>years</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>fifty</t>
+          <t>dr.</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>how</t>
+          <t>graves</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>jacobs</t>
+          <t>necessary</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>misleading</t>
+          <t>replies</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>reply</t>
+          <t>cited</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>to</t>
+          <t>college</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>years</t>
+          <t>course</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>dr.</t>
+          <t>education</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>graves</t>
+          <t>elective</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>is</t>
+          <t>reasons</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
         <is>
-          <t>necessary</t>
+          <t>students</t>
         </is>
       </c>
       <c r="AP1" s="1" t="inlineStr">
         <is>
-          <t>replies</t>
+          <t>taking</t>
         </is>
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>cited</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
         <is>
-          <t>college</t>
+          <t>training</t>
         </is>
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>course</t>
+          <t>child</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>emeritus</t>
         </is>
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>elective</t>
+          <t>john</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
         <is>
-          <t>on</t>
+          <t>owen</t>
         </is>
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>reasons</t>
+          <t>sanderlin</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>students</t>
+          <t>choice</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>taking</t>
+          <t>freedom</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>grows</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>training</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>child</t>
+          <t>right</t>
         </is>
       </c>
       <c r="BC1" s="1" t="inlineStr">
         <is>
-          <t>emeritus</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
         <is>
-          <t>john</t>
+          <t>know</t>
         </is>
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
-          <t>owen</t>
+          <t>thyself</t>
         </is>
       </c>
       <c r="BF1" s="1" t="inlineStr">
         <is>
-          <t>sanderlin</t>
+          <t>illness</t>
         </is>
       </c>
       <c r="BG1" s="1" t="inlineStr">
         <is>
-          <t>choice</t>
+          <t>kirlian</t>
         </is>
       </c>
       <c r="BH1" s="1" t="inlineStr">
         <is>
-          <t>do</t>
+          <t>photography</t>
         </is>
       </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>freedom</t>
+          <t>psychosomatic</t>
         </is>
       </c>
       <c r="BJ1" s="1" t="inlineStr">
         <is>
-          <t>grows</t>
+          <t>sentics</t>
         </is>
       </c>
       <c r="BK1" s="1" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>book</t>
         </is>
       </c>
       <c r="BL1" s="1" t="inlineStr">
         <is>
-          <t>right</t>
+          <t>review</t>
         </is>
       </c>
       <c r="BM1" s="1" t="inlineStr">
         <is>
-          <t>self-concept</t>
+          <t>parent</t>
         </is>
       </c>
       <c r="BN1" s="1" t="inlineStr">
         <is>
-          <t>the</t>
+          <t>perspective</t>
         </is>
       </c>
       <c r="BO1" s="1" t="inlineStr">
         <is>
-          <t>through</t>
+          <t>boys</t>
         </is>
       </c>
       <c r="BP1" s="1" t="inlineStr">
         <is>
-          <t>know</t>
+          <t>courage</t>
         </is>
       </c>
       <c r="BQ1" s="1" t="inlineStr">
         <is>
-          <t>thyself</t>
+          <t>creativity</t>
         </is>
       </c>
       <c r="BR1" s="1" t="inlineStr">
         <is>
-          <t>illness</t>
+          <t>editorial</t>
         </is>
       </c>
       <c r="BS1" s="1" t="inlineStr">
         <is>
-          <t>kirlian</t>
+          <t>enigma</t>
         </is>
       </c>
       <c r="BT1" s="1" t="inlineStr">
         <is>
-          <t>photography</t>
+          <t>giftedness</t>
         </is>
       </c>
       <c r="BU1" s="1" t="inlineStr">
         <is>
-          <t>psychosomatic</t>
+          <t>girls</t>
         </is>
       </c>
       <c r="BV1" s="1" t="inlineStr">
         <is>
-          <t>sentics</t>
+          <t>dear</t>
         </is>
       </c>
       <c r="BW1" s="1" t="inlineStr">
         <is>
-          <t>book</t>
+          <t>nagc</t>
         </is>
       </c>
       <c r="BX1" s="1" t="inlineStr">
         <is>
-          <t>review</t>
+          <t>communication</t>
         </is>
       </c>
       <c r="BY1" s="1" t="inlineStr">
         <is>
-          <t>parent</t>
+          <t>e.</t>
         </is>
       </c>
       <c r="BZ1" s="1" t="inlineStr">
         <is>
-          <t>perspective</t>
+          <t>paul</t>
         </is>
       </c>
       <c r="CA1" s="1" t="inlineStr">
         <is>
-          <t>boys</t>
+          <t>personal</t>
         </is>
       </c>
       <c r="CB1" s="1" t="inlineStr">
         <is>
-          <t>courage</t>
+          <t>torrance</t>
         </is>
       </c>
       <c r="CC1" s="1" t="inlineStr">
         <is>
-          <t>creativity</t>
+          <t>books</t>
         </is>
       </c>
       <c r="CD1" s="1" t="inlineStr">
         <is>
-          <t>editorial</t>
+          <t>instructional</t>
         </is>
       </c>
       <c r="CE1" s="1" t="inlineStr">
         <is>
-          <t>enigma</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="CF1" s="1" t="inlineStr">
         <is>
-          <t>giftedness</t>
+          <t>tests</t>
         </is>
       </c>
       <c r="CG1" s="1" t="inlineStr">
         <is>
-          <t>girls</t>
+          <t>'s</t>
         </is>
       </c>
       <c r="CH1" s="1" t="inlineStr">
         <is>
-          <t>dear</t>
+          <t>leading</t>
         </is>
       </c>
       <c r="CI1" s="1" t="inlineStr">
         <is>
-          <t>nagc</t>
+          <t>one</t>
         </is>
       </c>
       <c r="CJ1" s="1" t="inlineStr">
         <is>
-          <t>communication</t>
+          <t>researchers</t>
         </is>
       </c>
       <c r="CK1" s="1" t="inlineStr">
         <is>
-          <t>e.</t>
+          <t>tribute</t>
         </is>
       </c>
       <c r="CL1" s="1" t="inlineStr">
         <is>
-          <t>from</t>
+          <t>wife</t>
         </is>
       </c>
       <c r="CM1" s="1" t="inlineStr">
         <is>
-          <t>paul</t>
+          <t>word</t>
         </is>
       </c>
       <c r="CN1" s="1" t="inlineStr">
         <is>
-          <t>personal</t>
+          <t>world</t>
         </is>
       </c>
       <c r="CO1" s="1" t="inlineStr">
         <is>
-          <t>torrance</t>
+          <t>pocketful</t>
         </is>
       </c>
       <c r="CP1" s="1" t="inlineStr">
         <is>
-          <t>books</t>
+          <t>poetry</t>
         </is>
       </c>
       <c r="CQ1" s="1" t="inlineStr">
         <is>
-          <t>instructional</t>
+          <t>lost</t>
         </is>
       </c>
       <c r="CR1" s="1" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>ones-the</t>
         </is>
       </c>
       <c r="CS1" s="1" t="inlineStr">
         <is>
-          <t>tests</t>
+          <t>background</t>
         </is>
       </c>
       <c r="CT1" s="1" t="inlineStr">
         <is>
-          <t>'s</t>
+          <t>factors</t>
         </is>
       </c>
       <c r="CU1" s="1" t="inlineStr">
         <is>
-          <t>his</t>
+          <t>family</t>
         </is>
       </c>
       <c r="CV1" s="1" t="inlineStr">
         <is>
-          <t>leading</t>
+          <t>originality</t>
         </is>
       </c>
       <c r="CW1" s="1" t="inlineStr">
         <is>
-          <t>one</t>
+          <t>causes</t>
         </is>
       </c>
       <c r="CX1" s="1" t="inlineStr">
         <is>
-          <t>researchers</t>
+          <t>hide</t>
         </is>
       </c>
       <c r="CY1" s="1" t="inlineStr">
         <is>
-          <t>tribute</t>
+          <t>let</t>
         </is>
       </c>
       <c r="CZ1" s="1" t="inlineStr">
         <is>
-          <t>wife</t>
+          <t>neglecting</t>
         </is>
       </c>
       <c r="DA1" s="1" t="inlineStr">
         <is>
-          <t>word</t>
+          <t>shortchanging</t>
         </is>
       </c>
       <c r="DB1" s="1" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>stop</t>
         </is>
       </c>
       <c r="DC1" s="1" t="inlineStr">
         <is>
-          <t>pocketful</t>
+          <t>talents</t>
         </is>
       </c>
       <c r="DD1" s="1" t="inlineStr">
         <is>
-          <t>poetry</t>
+          <t>community</t>
         </is>
       </c>
       <c r="DE1" s="1" t="inlineStr">
         <is>
-          <t>lost</t>
+          <t>programming</t>
         </is>
       </c>
       <c r="DF1" s="1" t="inlineStr">
         <is>
-          <t>ones-the</t>
+          <t>resources</t>
         </is>
       </c>
       <c r="DG1" s="1" t="inlineStr">
         <is>
-          <t>background</t>
+          <t>utilizing</t>
         </is>
       </c>
       <c r="DH1" s="1" t="inlineStr">
         <is>
-          <t>factors</t>
+          <t>send</t>
         </is>
       </c>
       <c r="DI1" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>sputniks</t>
         </is>
       </c>
       <c r="DJ1" s="1" t="inlineStr">
         <is>
-          <t>originality</t>
+          <t>association</t>
         </is>
       </c>
       <c r="DK1" s="1" t="inlineStr">
         <is>
-          <t>causes</t>
+          <t>letter</t>
         </is>
       </c>
       <c r="DL1" s="1" t="inlineStr">
         <is>
-          <t>hide</t>
+          <t>members</t>
         </is>
       </c>
       <c r="DM1" s="1" t="inlineStr">
         <is>
-          <t>let</t>
+          <t>national</t>
         </is>
       </c>
       <c r="DN1" s="1" t="inlineStr">
         <is>
-          <t>neglecting</t>
+          <t>open</t>
         </is>
       </c>
       <c r="DO1" s="1" t="inlineStr">
         <is>
-          <t>our</t>
+          <t>quarterly</t>
         </is>
       </c>
       <c r="DP1" s="1" t="inlineStr">
         <is>
-          <t>shortchanging</t>
+          <t>readers</t>
         </is>
       </c>
       <c r="DQ1" s="1" t="inlineStr">
         <is>
-          <t>stop</t>
+          <t>america</t>
         </is>
       </c>
       <c r="DR1" s="1" t="inlineStr">
         <is>
-          <t>talents</t>
+          <t>educator</t>
         </is>
       </c>
       <c r="DS1" s="1" t="inlineStr">
         <is>
-          <t>them</t>
+          <t>english</t>
         </is>
       </c>
       <c r="DT1" s="1" t="inlineStr">
         <is>
-          <t>community</t>
+          <t>reports</t>
         </is>
       </c>
       <c r="DU1" s="1" t="inlineStr">
         <is>
-          <t>programming</t>
+          <t>studying</t>
         </is>
       </c>
       <c r="DV1" s="1" t="inlineStr">
         <is>
-          <t>resources</t>
+          <t>visit</t>
         </is>
       </c>
       <c r="DW1" s="1" t="inlineStr">
         <is>
-          <t>utilizing</t>
+          <t>45236</t>
         </is>
       </c>
       <c r="DX1" s="1" t="inlineStr">
         <is>
-          <t>more</t>
+          <t>8080</t>
         </is>
       </c>
       <c r="DY1" s="1" t="inlineStr">
         <is>
-          <t>send</t>
+          <t>cincinnati</t>
         </is>
       </c>
       <c r="DZ1" s="1" t="inlineStr">
         <is>
-          <t>sputniks</t>
+          <t>drive</t>
         </is>
       </c>
       <c r="EA1" s="1" t="inlineStr">
         <is>
-          <t>up</t>
+          <t>happenings</t>
         </is>
       </c>
       <c r="EB1" s="1" t="inlineStr">
         <is>
-          <t>an</t>
+          <t>new</t>
         </is>
       </c>
       <c r="EC1" s="1" t="inlineStr">
         <is>
-          <t>association</t>
+          <t>ohio</t>
         </is>
       </c>
       <c r="ED1" s="1" t="inlineStr">
         <is>
-          <t>letter</t>
+          <t>springvalley</t>
         </is>
       </c>
       <c r="EE1" s="1" t="inlineStr">
         <is>
-          <t>members</t>
+          <t>pre-school</t>
         </is>
       </c>
       <c r="EF1" s="1" t="inlineStr">
         <is>
-          <t>national</t>
+          <t>1973</t>
         </is>
       </c>
       <c r="EG1" s="1" t="inlineStr">
         <is>
-          <t>open</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="EH1" s="1" t="inlineStr">
         <is>
-          <t>quarterly</t>
+          <t>kindergarten</t>
         </is>
       </c>
       <c r="EI1" s="1" t="inlineStr">
         <is>
-          <t>readers</t>
+          <t>kraus</t>
         </is>
       </c>
       <c r="EJ1" s="1" t="inlineStr">
         <is>
-          <t>america</t>
+          <t>longitudinal</t>
         </is>
       </c>
       <c r="EK1" s="1" t="inlineStr">
         <is>
-          <t>educator</t>
+          <t>p.</t>
         </is>
       </c>
       <c r="EL1" s="1" t="inlineStr">
         <is>
-          <t>english</t>
+          <t>study</t>
         </is>
       </c>
       <c r="EM1" s="1" t="inlineStr">
         <is>
-          <t>reports</t>
+          <t>wiley</t>
         </is>
       </c>
       <c r="EN1" s="1" t="inlineStr">
         <is>
-          <t>studying</t>
+          <t>yesterday</t>
         </is>
       </c>
       <c r="EO1" s="1" t="inlineStr">
         <is>
-          <t>visit</t>
+          <t>york</t>
         </is>
       </c>
       <c r="EP1" s="1" t="inlineStr">
         <is>
-          <t>45236</t>
+          <t>directions</t>
         </is>
       </c>
       <c r="EQ1" s="1" t="inlineStr">
         <is>
-          <t>8080</t>
+          <t>harper-row</t>
         </is>
       </c>
       <c r="ER1" s="1" t="inlineStr">
         <is>
-          <t>at</t>
+          <t>j.</t>
         </is>
       </c>
       <c r="ES1" s="1" t="inlineStr">
         <is>
-          <t>cincinnati</t>
+          <t>renzulli</t>
         </is>
       </c>
       <c r="ET1" s="1" t="inlineStr">
         <is>
-          <t>drive</t>
+          <t>s.</t>
         </is>
       </c>
       <c r="EU1" s="1" t="inlineStr">
         <is>
-          <t>happenings</t>
+          <t>three</t>
         </is>
       </c>
       <c r="EV1" s="1" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>work-books</t>
         </is>
       </c>
       <c r="EW1" s="1" t="inlineStr">
         <is>
-          <t>ohio</t>
+          <t>always</t>
         </is>
       </c>
       <c r="EX1" s="1" t="inlineStr">
         <is>
-          <t>springvalley</t>
+          <t>best</t>
         </is>
       </c>
       <c r="EY1" s="1" t="inlineStr">
         <is>
-          <t>pre-school</t>
+          <t>kids</t>
         </is>
       </c>
       <c r="EZ1" s="1" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>aggression</t>
         </is>
       </c>
       <c r="FA1" s="1" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>displaced</t>
         </is>
       </c>
       <c r="FB1" s="1" t="inlineStr">
         <is>
-          <t>kindergarten</t>
+          <t>debate</t>
         </is>
       </c>
       <c r="FC1" s="1" t="inlineStr">
         <is>
-          <t>kraus</t>
+          <t>fabric</t>
         </is>
       </c>
       <c r="FD1" s="1" t="inlineStr">
         <is>
-          <t>longitudinal</t>
+          <t>society</t>
         </is>
       </c>
       <c r="FE1" s="1" t="inlineStr">
         <is>
-          <t>p.</t>
+          <t>today</t>
         </is>
       </c>
       <c r="FF1" s="1" t="inlineStr">
         <is>
-          <t>study</t>
+          <t>values</t>
         </is>
       </c>
       <c r="FG1" s="1" t="inlineStr">
         <is>
-          <t>wiley</t>
+          <t>achievement</t>
         </is>
       </c>
       <c r="FH1" s="1" t="inlineStr">
         <is>
-          <t>yesterday</t>
+          <t>autobiographical</t>
         </is>
       </c>
       <c r="FI1" s="1" t="inlineStr">
         <is>
-          <t>york</t>
+          <t>improving</t>
         </is>
       </c>
       <c r="FJ1" s="1" t="inlineStr">
         <is>
-          <t>directions</t>
+          <t>information</t>
         </is>
       </c>
       <c r="FK1" s="1" t="inlineStr">
         <is>
-          <t>harper-row</t>
+          <t>predictions</t>
         </is>
       </c>
       <c r="FL1" s="1" t="inlineStr">
         <is>
-          <t>in</t>
+          <t>using</t>
         </is>
       </c>
       <c r="FM1" s="1" t="inlineStr">
         <is>
-          <t>j.</t>
+          <t>disabilities</t>
         </is>
       </c>
       <c r="FN1" s="1" t="inlineStr">
         <is>
-          <t>renzulli</t>
+          <t>analogy</t>
         </is>
       </c>
       <c r="FO1" s="1" t="inlineStr">
         <is>
-          <t>s.</t>
+          <t>imagery</t>
         </is>
       </c>
       <c r="FP1" s="1" t="inlineStr">
         <is>
-          <t>three</t>
+          <t>imagination</t>
         </is>
       </c>
       <c r="FQ1" s="1" t="inlineStr">
         <is>
-          <t>work-books</t>
+          <t>production</t>
         </is>
       </c>
       <c r="FR1" s="1" t="inlineStr">
         <is>
-          <t>always</t>
+          <t>leadership</t>
         </is>
       </c>
       <c r="FS1" s="1" t="inlineStr">
         <is>
-          <t>best</t>
+          <t>affective</t>
         </is>
       </c>
       <c r="FT1" s="1" t="inlineStr">
         <is>
-          <t>kids</t>
+          <t>domain</t>
         </is>
       </c>
       <c r="FU1" s="1" t="inlineStr">
         <is>
-          <t>aggression</t>
+          <t>97</t>
         </is>
       </c>
       <c r="FV1" s="1" t="inlineStr">
         <is>
-          <t>displaced</t>
+          <t>continued</t>
         </is>
       </c>
       <c r="FW1" s="1" t="inlineStr">
         <is>
-          <t>debate</t>
+          <t>page</t>
         </is>
       </c>
       <c r="FX1" s="1" t="inlineStr">
         <is>
-          <t>fabric</t>
+          <t>person</t>
         </is>
       </c>
       <c r="FY1" s="1" t="inlineStr">
         <is>
-          <t>society</t>
+          <t>process</t>
         </is>
       </c>
       <c r="FZ1" s="1" t="inlineStr">
         <is>
-          <t>today</t>
+          <t>product</t>
         </is>
       </c>
       <c r="GA1" s="1" t="inlineStr">
         <is>
-          <t>values</t>
+          <t>activities</t>
         </is>
       </c>
       <c r="GB1" s="1" t="inlineStr">
         <is>
-          <t>achievement</t>
+          <t>practicum</t>
         </is>
       </c>
       <c r="GC1" s="1" t="inlineStr">
         <is>
-          <t>autobiographical</t>
+          <t>university</t>
         </is>
       </c>
       <c r="GD1" s="1" t="inlineStr">
         <is>
-          <t>improving</t>
+          <t>myopia</t>
         </is>
       </c>
       <c r="GE1" s="1" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>view</t>
         </is>
       </c>
       <c r="GF1" s="1" t="inlineStr">
         <is>
-          <t>predictions</t>
+          <t>08512</t>
         </is>
       </c>
       <c r="GG1" s="1" t="inlineStr">
         <is>
-          <t>using</t>
+          <t>190</t>
         </is>
       </c>
       <c r="GH1" s="1" t="inlineStr">
         <is>
-          <t>disabilities</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="GI1" s="1" t="inlineStr">
         <is>
-          <t>with</t>
+          <t>a.</t>
         </is>
       </c>
       <c r="GJ1" s="1" t="inlineStr">
         <is>
-          <t>analogy</t>
+          <t>barnes</t>
         </is>
       </c>
       <c r="GK1" s="1" t="inlineStr">
         <is>
-          <t>imagery</t>
+          <t>co.</t>
         </is>
       </c>
       <c r="GL1" s="1" t="inlineStr">
         <is>
-          <t>imagination</t>
+          <t>cranbury</t>
         </is>
       </c>
       <c r="GM1" s="1" t="inlineStr">
         <is>
-          <t>production</t>
+          <t>n.j.</t>
         </is>
       </c>
       <c r="GN1" s="1" t="inlineStr">
         <is>
-          <t>leadership</t>
+          <t>owenita</t>
         </is>
       </c>
       <c r="GO1" s="1" t="inlineStr">
         <is>
-          <t>affective</t>
+          <t>pp.</t>
         </is>
       </c>
       <c r="GP1" s="1" t="inlineStr">
         <is>
-          <t>domain</t>
+          <t>teaching</t>
         </is>
       </c>
       <c r="GQ1" s="1" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>farrago</t>
         </is>
       </c>
       <c r="GR1" s="1" t="inlineStr">
         <is>
-          <t>continued</t>
+          <t>fun</t>
         </is>
       </c>
       <c r="GS1" s="1" t="inlineStr">
         <is>
-          <t>page</t>
+          <t>light</t>
         </is>
       </c>
       <c r="GT1" s="1" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>reading</t>
         </is>
       </c>
       <c r="GU1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="GV1" s="1" t="inlineStr">
         <is>
-          <t>product</t>
+          <t>discover</t>
         </is>
       </c>
       <c r="GW1" s="1" t="inlineStr">
         <is>
-          <t>activities</t>
+          <t>fancy</t>
         </is>
       </c>
       <c r="GX1" s="1" t="inlineStr">
         <is>
-          <t>practicum</t>
+          <t>interested</t>
         </is>
       </c>
       <c r="GY1" s="1" t="inlineStr">
         <is>
-          <t>university</t>
+          <t>language</t>
         </is>
       </c>
       <c r="GZ1" s="1" t="inlineStr">
         <is>
-          <t>myopia</t>
+          <t>linguistics</t>
         </is>
       </c>
       <c r="HA1" s="1" t="inlineStr">
         <is>
-          <t>view</t>
+          <t>one-hundred</t>
         </is>
       </c>
       <c r="HB1" s="1" t="inlineStr">
         <is>
-          <t>08512</t>
+          <t>tickle</t>
         </is>
       </c>
       <c r="HC1" s="1" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>ways</t>
         </is>
       </c>
       <c r="HD1" s="1" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>ap</t>
         </is>
       </c>
       <c r="HE1" s="1" t="inlineStr">
         <is>
-          <t>a.</t>
+          <t>art</t>
         </is>
       </c>
       <c r="HF1" s="1" t="inlineStr">
         <is>
-          <t>barnes</t>
+          <t>judged</t>
         </is>
       </c>
       <c r="HG1" s="1" t="inlineStr">
         <is>
-          <t>co.</t>
+          <t>music</t>
         </is>
       </c>
       <c r="HH1" s="1" t="inlineStr">
         <is>
-          <t>cranbury</t>
+          <t>rider</t>
         </is>
       </c>
       <c r="HI1" s="1" t="inlineStr">
         <is>
-          <t>n.j.</t>
+          <t>among</t>
         </is>
       </c>
       <c r="HJ1" s="1" t="inlineStr">
         <is>
-          <t>owenita</t>
+          <t>indicators</t>
         </is>
       </c>
       <c r="HK1" s="1" t="inlineStr">
         <is>
-          <t>pp.</t>
+          <t>non-test</t>
         </is>
       </c>
       <c r="HL1" s="1" t="inlineStr">
         <is>
-          <t>teaching</t>
+          <t>talent</t>
         </is>
       </c>
       <c r="HM1" s="1" t="inlineStr">
         <is>
-          <t>farrago</t>
+          <t>acrostic</t>
         </is>
       </c>
       <c r="HN1" s="1" t="inlineStr">
         <is>
-          <t>fun</t>
+          <t>discipline</t>
         </is>
       </c>
       <c r="HO1" s="1" t="inlineStr">
         <is>
-          <t>light</t>
+          <t>prescription</t>
         </is>
       </c>
       <c r="HP1" s="1" t="inlineStr">
         <is>
-          <t>reading</t>
+          <t>accelerate</t>
         </is>
       </c>
       <c r="HQ1" s="1" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>bio-feedback</t>
         </is>
       </c>
       <c r="HR1" s="1" t="inlineStr">
         <is>
-          <t>discover</t>
+          <t>fact</t>
         </is>
       </c>
       <c r="HS1" s="1" t="inlineStr">
         <is>
-          <t>fancy</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="HT1" s="1" t="inlineStr">
         <is>
-          <t>interested</t>
+          <t>hold</t>
         </is>
       </c>
       <c r="HU1" s="1" t="inlineStr">
         <is>
-          <t>language</t>
+          <t>implication</t>
         </is>
       </c>
       <c r="HV1" s="1" t="inlineStr">
         <is>
-          <t>linguistics</t>
+          <t>comment</t>
         </is>
       </c>
       <c r="HW1" s="1" t="inlineStr">
         <is>
-          <t>one-hundred</t>
+          <t>negative</t>
         </is>
       </c>
       <c r="HX1" s="1" t="inlineStr">
         <is>
-          <t>tickle</t>
+          <t>positive</t>
         </is>
       </c>
       <c r="HY1" s="1" t="inlineStr">
         <is>
-          <t>ways</t>
+          <t>vibrations</t>
         </is>
       </c>
       <c r="HZ1" s="1" t="inlineStr">
         <is>
-          <t>when</t>
+          <t>careers</t>
         </is>
       </c>
       <c r="IA1" s="1" t="inlineStr">
         <is>
-          <t>you</t>
+          <t>health</t>
         </is>
       </c>
       <c r="IB1" s="1" t="inlineStr">
         <is>
-          <t>your</t>
+          <t>day</t>
         </is>
       </c>
       <c r="IC1" s="1" t="inlineStr">
         <is>
-          <t>ap</t>
+          <t>earlham</t>
         </is>
       </c>
       <c r="ID1" s="1" t="inlineStr">
         <is>
-          <t>art</t>
+          <t>old</t>
         </is>
       </c>
       <c r="IE1" s="1" t="inlineStr">
         <is>
-          <t>judged</t>
+          <t>adolescents</t>
         </is>
       </c>
       <c r="IF1" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>autonomy</t>
         </is>
       </c>
       <c r="IG1" s="1" t="inlineStr">
         <is>
-          <t>rider</t>
+          <t>average</t>
         </is>
       </c>
       <c r="IH1" s="1" t="inlineStr">
         <is>
-          <t>among</t>
+          <t>bright</t>
         </is>
       </c>
       <c r="II1" s="1" t="inlineStr">
         <is>
-          <t>indicators</t>
+          <t>developmental</t>
         </is>
       </c>
       <c r="IJ1" s="1" t="inlineStr">
         <is>
-          <t>non-test</t>
+          <t>tasks</t>
         </is>
       </c>
       <c r="IK1" s="1" t="inlineStr">
         <is>
-          <t>talent</t>
+          <t>loner</t>
         </is>
       </c>
       <c r="IL1" s="1" t="inlineStr">
         <is>
-          <t>acrostic</t>
+          <t>continues</t>
         </is>
       </c>
       <c r="IM1" s="1" t="inlineStr">
         <is>
-          <t>discipline</t>
+          <t>rejected</t>
         </is>
       </c>
       <c r="IN1" s="1" t="inlineStr">
         <is>
-          <t>prescription</t>
+          <t>artists</t>
         </is>
       </c>
       <c r="IO1" s="1" t="inlineStr">
         <is>
-          <t>accelerated</t>
+          <t>classical</t>
         </is>
       </c>
       <c r="IP1" s="1" t="inlineStr">
         <is>
-          <t>bio-feedback</t>
+          <t>even</t>
         </is>
       </c>
       <c r="IQ1" s="1" t="inlineStr">
         <is>
-          <t>does</t>
+          <t>find</t>
         </is>
       </c>
       <c r="IR1" s="1" t="inlineStr">
         <is>
-          <t>fact</t>
+          <t>greek</t>
         </is>
       </c>
       <c r="IS1" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>inspiration</t>
         </is>
       </c>
       <c r="IT1" s="1" t="inlineStr">
-        <is>
-          <t>hold</t>
-        </is>
-      </c>
-      <c r="IU1" s="1" t="inlineStr">
-        <is>
-          <t>implication</t>
-        </is>
-      </c>
-      <c r="IV1" s="1" t="inlineStr">
-        <is>
-          <t>it</t>
-        </is>
-      </c>
-      <c r="IW1" s="1" t="inlineStr">
-        <is>
-          <t>be</t>
-        </is>
-      </c>
-      <c r="IX1" s="1" t="inlineStr">
-        <is>
-          <t>comment</t>
-        </is>
-      </c>
-      <c r="IY1" s="1" t="inlineStr">
-        <is>
-          <t>negative</t>
-        </is>
-      </c>
-      <c r="IZ1" s="1" t="inlineStr">
-        <is>
-          <t>positive</t>
-        </is>
-      </c>
-      <c r="JA1" s="1" t="inlineStr">
-        <is>
-          <t>vibrations</t>
-        </is>
-      </c>
-      <c r="JB1" s="1" t="inlineStr">
-        <is>
-          <t>careers</t>
-        </is>
-      </c>
-      <c r="JC1" s="1" t="inlineStr">
-        <is>
-          <t>health</t>
-        </is>
-      </c>
-      <c r="JD1" s="1" t="inlineStr">
-        <is>
-          <t>day</t>
-        </is>
-      </c>
-      <c r="JE1" s="1" t="inlineStr">
-        <is>
-          <t>earlham</t>
-        </is>
-      </c>
-      <c r="JF1" s="1" t="inlineStr">
-        <is>
-          <t>old</t>
-        </is>
-      </c>
-      <c r="JG1" s="1" t="inlineStr">
-        <is>
-          <t>adolescents</t>
-        </is>
-      </c>
-      <c r="JH1" s="1" t="inlineStr">
-        <is>
-          <t>autonomy</t>
-        </is>
-      </c>
-      <c r="JI1" s="1" t="inlineStr">
-        <is>
-          <t>average</t>
-        </is>
-      </c>
-      <c r="JJ1" s="1" t="inlineStr">
-        <is>
-          <t>bright</t>
-        </is>
-      </c>
-      <c r="JK1" s="1" t="inlineStr">
-        <is>
-          <t>developmental</t>
-        </is>
-      </c>
-      <c r="JL1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="JM1" s="1" t="inlineStr">
-        <is>
-          <t>tasks</t>
-        </is>
-      </c>
-      <c r="JN1" s="1" t="inlineStr">
-        <is>
-          <t>loner</t>
-        </is>
-      </c>
-      <c r="JO1" s="1" t="inlineStr">
-        <is>
-          <t>continues</t>
-        </is>
-      </c>
-      <c r="JP1" s="1" t="inlineStr">
-        <is>
-          <t>rejected</t>
-        </is>
-      </c>
-      <c r="JQ1" s="1" t="inlineStr">
-        <is>
-          <t>artists</t>
-        </is>
-      </c>
-      <c r="JR1" s="1" t="inlineStr">
-        <is>
-          <t>classical</t>
-        </is>
-      </c>
-      <c r="JS1" s="1" t="inlineStr">
-        <is>
-          <t>did</t>
-        </is>
-      </c>
-      <c r="JT1" s="1" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="JU1" s="1" t="inlineStr">
-        <is>
-          <t>find</t>
-        </is>
-      </c>
-      <c r="JV1" s="1" t="inlineStr">
-        <is>
-          <t>greek</t>
-        </is>
-      </c>
-      <c r="JW1" s="1" t="inlineStr">
-        <is>
-          <t>inspiration</t>
-        </is>
-      </c>
-      <c r="JX1" s="1" t="inlineStr">
         <is>
           <t>myths</t>
         </is>
@@ -1859,52 +1709,52 @@
         <v>1973</v>
       </c>
       <c r="C2" t="n">
-        <v>0.87</v>
+        <v>2.02</v>
       </c>
       <c r="D2" t="n">
-        <v>1.93</v>
+        <v>0.85</v>
       </c>
       <c r="E2" t="n">
-        <v>0.75</v>
+        <v>2.94</v>
       </c>
       <c r="F2" t="n">
-        <v>2.72</v>
+        <v>0.59</v>
       </c>
       <c r="G2" t="n">
-        <v>0.47</v>
+        <v>0.59</v>
       </c>
       <c r="H2" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="I2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R2" t="n">
         <v>0.65</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.34</v>
       </c>
       <c r="S2" t="n">
         <v>0.34</v>
@@ -1913,796 +1763,706 @@
         <v>0.34</v>
       </c>
       <c r="U2" t="n">
-        <v>1.3</v>
+        <v>0.34</v>
       </c>
       <c r="V2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0.6599999999999999</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.6399999999999999</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0.8700000000000001</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="EF2" t="n">
         <v>0.63</v>
       </c>
-      <c r="W2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AD2" t="n">
+      <c r="EG2" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="GD2" t="n">
         <v>1.42</v>
       </c>
-      <c r="AE2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0.5900000000000001</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AO2" t="n">
+      <c r="GE2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GV2" t="n">
         <v>0.3</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="GW2" t="n">
         <v>0.3</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="GX2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="II2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IL2" t="n">
         <v>0.67</v>
       </c>
-      <c r="AT2" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>0.8700000000000001</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>2.850000000000001</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="DE2" t="n">
+      <c r="IM2" t="n">
         <v>0.67</v>
       </c>
-      <c r="DF2" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>0.8300000000000001</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>0.6599999999999999</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="II2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>0.58</v>
-      </c>
       <c r="IN2" t="n">
-        <v>0.58</v>
+        <v>0.35</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.92</v>
+        <v>0.35</v>
       </c>
       <c r="IP2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IR2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IS2" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="IT2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="JP2" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="JQ2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JR2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JS2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JT2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JU2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JV2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JW2" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="JX2" t="n">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
